--- a/Week 4 files/Admiral Gardner and Rose port locations for nodegoat.xlsx
+++ b/Week 4 files/Admiral Gardner and Rose port locations for nodegoat.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Admiral Gardner" sheetId="1" r:id="rId1"/>
     <sheet name="Rose" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="117">
   <si>
     <t>Benkulen</t>
   </si>
@@ -373,12 +368,15 @@
   </si>
   <si>
     <t>23-09-1800</t>
+  </si>
+  <si>
+    <t>GeoNames ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -480,7 +478,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -515,7 +513,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -692,7 +690,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -700,21 +698,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1328125" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.65">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -725,10 +723,13 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -738,11 +739,14 @@
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2">
+        <v>2635650</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -752,11 +756,14 @@
       <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>1275004</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -766,11 +773,14 @@
       <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>1649150</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -780,11 +790,14 @@
       <c r="C5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1275004</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -794,11 +807,14 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6">
+        <v>1257845</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -808,11 +824,14 @@
       <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7">
+        <v>1649150</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -822,11 +841,14 @@
       <c r="C8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8">
+        <v>3370903</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -836,11 +858,14 @@
       <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9">
+        <v>2643743</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -850,11 +875,14 @@
       <c r="C10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10">
+        <v>2639996</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -864,11 +892,14 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11">
+        <v>1264527</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -878,11 +909,14 @@
       <c r="C12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12">
+        <v>6831470</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -892,11 +926,14 @@
       <c r="C13" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13">
+        <v>1809858</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -906,11 +943,14 @@
       <c r="C14" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14">
+        <v>3370903</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -920,11 +960,14 @@
       <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15">
+        <v>2643743</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -934,11 +977,14 @@
       <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16">
+        <v>2651468</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -948,11 +994,14 @@
       <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17">
+        <v>2267827</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -962,11 +1011,14 @@
       <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18">
+        <v>3367577</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -976,11 +1028,14 @@
       <c r="C19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19">
+        <v>1264527</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -990,11 +1045,14 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20">
+        <v>1272657</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1004,11 +1062,14 @@
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21">
+        <v>1257845</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1018,11 +1079,14 @@
       <c r="C22" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22">
+        <v>3370903</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1032,11 +1096,14 @@
       <c r="C23" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23">
+        <v>2643743</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1046,11 +1113,14 @@
       <c r="C24" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24">
+        <v>2639996</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1060,11 +1130,14 @@
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25">
+        <v>1264527</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1074,11 +1147,14 @@
       <c r="C26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26">
+        <v>1248991</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1088,11 +1164,14 @@
       <c r="C27" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27">
+        <v>3370903</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1102,11 +1181,14 @@
       <c r="C28" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28">
+        <v>2643743</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1116,11 +1198,14 @@
       <c r="C29" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29">
+        <v>2639996</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1130,11 +1215,14 @@
       <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30">
+        <v>1264527</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1144,11 +1232,14 @@
       <c r="C31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31">
+        <v>1275004</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1158,11 +1249,14 @@
       <c r="C32" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32">
+        <v>1272657</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1172,11 +1266,14 @@
       <c r="C33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33">
+        <v>1257845</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1186,11 +1283,14 @@
       <c r="C34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34">
+        <v>1264527</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1200,11 +1300,14 @@
       <c r="C35" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35">
+        <v>3367577</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1214,11 +1317,14 @@
       <c r="C36" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36">
+        <v>3370903</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1228,11 +1334,14 @@
       <c r="C37" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37">
+        <v>2643743</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1242,7 +1351,10 @@
       <c r="C38" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38">
+        <v>2651468</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1256,19 +1368,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.86328125" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1282,7 +1394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1296,7 +1408,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1310,7 +1422,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1324,7 +1436,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1335,7 +1447,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1349,7 +1461,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1363,7 +1475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1377,7 +1489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1391,7 +1503,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1405,7 +1517,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1419,7 +1531,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1545,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1447,7 +1559,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1461,7 +1573,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1475,7 +1587,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1489,7 +1601,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1503,7 +1615,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1517,7 +1629,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1531,7 +1643,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1545,7 +1657,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1559,7 +1671,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1573,7 +1685,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1584,7 +1696,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1598,7 +1710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1612,7 +1724,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1626,7 +1738,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1640,7 +1752,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1654,7 +1766,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1668,7 +1780,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1682,7 +1794,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1696,7 +1808,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1707,7 +1819,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1721,7 +1833,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1735,7 +1847,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1749,7 +1861,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1763,7 +1875,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1777,7 +1889,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1791,7 +1903,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A39" t="s">
         <v>39</v>
       </c>
